--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1025.60664</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2911.52052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>238.82437</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1652</v>
-      </c>
-      <c r="F2" t="n">
-        <v>77.65921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4229.82858</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1129.12009</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726.69165</v>
-      </c>
-      <c r="J2" t="n">
-        <v>301.40502</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464.23638</v>
-      </c>
-      <c r="L2" t="n">
-        <v>58348.1498</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.58279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61.88019</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1512.73839</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1457.93029</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>234.50952</v>
-      </c>
-      <c r="R2" t="n">
-        <v>229.09017</v>
-      </c>
-      <c r="S2" t="n">
-        <v>188.08912</v>
-      </c>
-      <c r="T2" t="n">
-        <v>215.01887</v>
-      </c>
-      <c r="U2" t="n">
-        <v>362.19976</v>
-      </c>
-      <c r="V2" t="n">
-        <v>823.65048</v>
-      </c>
-      <c r="W2" t="n">
-        <v>352.19647</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2579.98284</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12511.53816</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1797.91581</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1303.84257</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>126.01734</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2877.16459</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5122.789</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2067.47387</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>890.60078</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>786.1669900000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>441.23462</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2041.28863</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>309.39892</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>491.7486</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>853.4524699999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1053.99426</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5961.24317</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>106.8327</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1021.9328</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3298.98633</v>
-      </c>
-      <c r="D3" t="n">
-        <v>290.86909</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1652</v>
-      </c>
-      <c r="F3" t="n">
-        <v>105.64394</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4787.58487</v>
-      </c>
-      <c r="H3" t="n">
-        <v>992.10977</v>
-      </c>
-      <c r="I3" t="n">
-        <v>870.8680900000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>359.25085</v>
-      </c>
-      <c r="K3" t="n">
-        <v>566.70425</v>
-      </c>
-      <c r="L3" t="n">
-        <v>66145.71458</v>
-      </c>
-      <c r="M3" t="n">
-        <v>57.39172</v>
-      </c>
-      <c r="N3" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1563.07193</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1588.45341</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>245.67682</v>
-      </c>
-      <c r="R3" t="n">
-        <v>282.90361</v>
-      </c>
-      <c r="S3" t="n">
-        <v>221.98183</v>
-      </c>
-      <c r="T3" t="n">
-        <v>205.22064</v>
-      </c>
-      <c r="U3" t="n">
-        <v>440.81338</v>
-      </c>
-      <c r="V3" t="n">
-        <v>890.36077</v>
-      </c>
-      <c r="W3" t="n">
-        <v>354.70519</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2844.58934</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14851.09522</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2446.61263</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1500.64366</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>151.40317</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3233.35396</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5792.22967</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2192.25264</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>996.2088199999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1164.16267</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>574.71411</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2243.14641</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>335.63368</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>571.86778</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>905.1686099999999</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1146.63206</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6462.47144</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>107.18858</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1019.38582</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3501.50544</v>
-      </c>
-      <c r="D4" t="n">
-        <v>306.04316</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1652</v>
-      </c>
-      <c r="F4" t="n">
-        <v>107.71853</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5190.64126</v>
-      </c>
-      <c r="H4" t="n">
-        <v>980.793</v>
-      </c>
-      <c r="I4" t="n">
-        <v>994.3929900000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>385.17629</v>
-      </c>
-      <c r="K4" t="n">
-        <v>643.81296</v>
-      </c>
-      <c r="L4" t="n">
-        <v>71606.08205</v>
-      </c>
-      <c r="M4" t="n">
-        <v>63.59828</v>
-      </c>
-      <c r="N4" t="n">
-        <v>90.91073</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1627.84459</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1750.35184</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>242.20067</v>
-      </c>
-      <c r="R4" t="n">
-        <v>307.15517</v>
-      </c>
-      <c r="S4" t="n">
-        <v>235.05244</v>
-      </c>
-      <c r="T4" t="n">
-        <v>211.89762</v>
-      </c>
-      <c r="U4" t="n">
-        <v>461.53591</v>
-      </c>
-      <c r="V4" t="n">
-        <v>948.57706</v>
-      </c>
-      <c r="W4" t="n">
-        <v>389.02356</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3338.15906</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>16712.4356</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2882.77733</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1544.48605</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>153.96725</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3280.01245</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6246.51464</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2250.14066</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1146.66208</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1245.19779</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>580.9606700000001</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2383.64838</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>344.59494</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>670.2494</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>953.39304</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1229.95182</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6637.77392</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>128.54671</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
